--- a/data.xlsx
+++ b/data.xlsx
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -541,29 +541,6 @@
       </c>
       <c r="F6" s="1" t="n"/>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>frefre</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>gr</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>44428</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
